--- a/docs/table.xlsx
+++ b/docs/table.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0200C77B-A47F-47BB-96DC-53116EB036C0}" xr6:coauthVersionLast="15" xr6:coauthVersionMax="15" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Internship2016\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -93,85 +97,86 @@
     <t>logic</t>
   </si>
   <si>
+    <t>presenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面毎に使用するデータを操作し、view(画面)に更新したデータを伝える。
+</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データの最小単位を記述する。（ユーザー情報、商品情報など）
+</t>
+  </si>
+  <si>
+    <t>loader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非同期でサーバに情報を取りに行くロジックを記述する。
+</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データの集まりを記述する。（在庫情報、カート情報など）
+</t>
+  </si>
+  <si>
+    <t>util</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プログラムの中で汎用的に使えるロジックを入れる。
+</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>画面のライフサイクルを記述する。  
+画面のボタンやテキストボックスなどの情報を操作可能な状態にする。  
+画面1つに対して1ファイル用意する。（Androidアプリはこのファイルさえあれば動く。）</t>
+  </si>
+  <si>
+    <t>fragbment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面1つを複数の部品に分けたものを操作可能な状態にする。
+</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面表示の部品を汎用的に使えるようする。
+</t>
+  </si>
+  <si>
+    <t>MainActivity.java</t>
+  </si>
+  <si>
+    <t>本アプリで最初に起動される画面。</t>
+  </si>
+  <si>
     <t>業務ロジックを記述する。
 業務ロジックとは、具体的な業務で扱う様々な実体(商品、顧客、在庫など)を表現し、
 また、それらの関係や処理の方法、業務の流れなどをプログラムコードとして実装した部分。(*1)</t>
-  </si>
-  <si>
-    <t>presenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面毎に使用するデータを操作し、view(画面)に更新したデータを伝える。
-</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データの最小単位を記述する。（ユーザー情報、商品情報など）
-</t>
-  </si>
-  <si>
-    <t>loader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非同期でサーバに情報を取りに行くロジックを記述する。
-</t>
-  </si>
-  <si>
-    <t>repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データの集まりを記述する。（在庫情報、カート情報など）
-</t>
-  </si>
-  <si>
-    <t>util</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プログラムの中で汎用的に使えるロジックを入れる。
-</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>画面のライフサイクルを記述する。  
-画面のボタンやテキストボックスなどの情報を操作可能な状態にする。  
-画面1つに対して1ファイル用意する。（Androidアプリはこのファイルさえあれば動く。）</t>
-  </si>
-  <si>
-    <t>fragbment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面1つを複数の部品に分けたものを操作可能な状態にする。
-</t>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">画面表示の部品を汎用的に使えるようする。
-</t>
-  </si>
-  <si>
-    <t>MainActivity.java</t>
-  </si>
-  <si>
-    <t>本アプリで最初に起動される画面。</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,11 +188,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -296,42 +312,15 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -341,16 +330,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -656,264 +672,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.5" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.5" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="15" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" s="14" customFormat="1" ht="37.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="15" t="s">
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" s="14" customFormat="1" ht="37.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="15" t="s">
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="14" customFormat="1" ht="37.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="15" t="s">
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="14" customFormat="1" ht="37.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="15" t="s">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="14" customFormat="1" ht="37.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="15" t="s">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="A13" s="6" t="s">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:4" s="14" customFormat="1" ht="93.75">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="18" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="14" customFormat="1" ht="37.5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="18" t="s">
+      <c r="D16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="10" t="s">
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" s="14" customFormat="1" ht="37.5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="14" customFormat="1" ht="37.5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:4" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="14" customFormat="1" ht="37.5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="A21" s="7"/>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="16"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" s="14" customFormat="1" ht="75">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="16"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="14" customFormat="1" ht="37.5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="10" t="s">
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" s="14" customFormat="1" ht="37.5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="18" t="s">
+      <c r="D25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="10" t="s">
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="A26" s="12"/>
-      <c r="B26" s="18" t="s">
+      <c r="C26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B13:D13"/>
@@ -930,9 +948,8 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>